--- a/biology/Mycologie/Melanoleuca_avellaneifolia/Melanoleuca_avellaneifolia.xlsx
+++ b/biology/Mycologie/Melanoleuca_avellaneifolia/Melanoleuca_avellaneifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melanoleuca avellaneifolia est une espèce de champignons de la famille des Tricholomataceae et du genre Melanoleuca.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce champignon est décrit de la côte Pacifique de l'Amérique du Nord[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce champignon est décrit de la côte Pacifique de l'Amérique du Nord.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'espèce est décrite en premier en 1913 par le mycologue américain William Alphonso Murrill, qui la classe dans le genre Melanoleuca sous le basionyme Melanoleuca avellaneifolia[1]. Elle a également été classée dans le genre Tricholoma, et considérée comme une variété de Tricholoma portentosum. Le nom correct Melanoleuca avellaneifolia a donc pour synonymes[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'espèce est décrite en premier en 1913 par le mycologue américain William Alphonso Murrill, qui la classe dans le genre Melanoleuca sous le basionyme Melanoleuca avellaneifolia. Elle a également été classée dans le genre Tricholoma, et considérée comme une variété de Tricholoma portentosum. Le nom correct Melanoleuca avellaneifolia a donc pour synonymes :
 Tricholoma portentosum var. avellaneifolium (Murrill) A.H. Sm., The American Midland Naturalist 32: 686 (1944)
 Tricholoma avellaneifolium (Murrill) Sacc. &amp; Trotter, Sylloge Fungorum 23: 32 (1925)
 Tricholoma avellaneifolium (Murrill) Murrill, Mycologia 5 (4): 223 (1913)</t>
